--- a/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,03</t>
+          <t>0,96; 6,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,74</t>
+          <t>4,09; 12,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,19</t>
+          <t>3,07; 8,12</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,49</t>
+          <t>4,71; 10,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 12,14</t>
+          <t>6,2; 11,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,26</t>
+          <t>6,27; 10,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,7</t>
+          <t>8,74; 14,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>5,92; 9,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 11,48</t>
+          <t>7,92; 11,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 38,02</t>
+          <t>11,41; 37,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,08</t>
+          <t>7,38; 11,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 25,55</t>
+          <t>10,03; 27,38</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,08</t>
+          <t>14,23; 20,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 17,75</t>
+          <t>12,99; 17,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,15</t>
+          <t>14,36; 18,24</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,65; 17,89</t>
+          <t>13,62; 18,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 25,24</t>
+          <t>14,74; 25,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,28</t>
+          <t>15,13; 21,39</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,24</t>
+          <t>11,56; 18,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,16</t>
+          <t>11,73; 14,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,52</t>
+          <t>12,23; 15,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 6,49</t>
+          <t>0,93; 7,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,9</t>
+          <t>4,38; 12,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,12</t>
+          <t>3,2; 8,19</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,88</t>
+          <t>4,66; 10,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,91</t>
+          <t>6,43; 12,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,21</t>
+          <t>6,25; 10,26</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,54</t>
+          <t>9,08; 14,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,99</t>
+          <t>5,88; 9,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,49</t>
+          <t>7,91; 11,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 37,42</t>
+          <t>11,26; 38,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,01</t>
+          <t>7,52; 11,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 27,38</t>
+          <t>10,17; 25,55</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,3</t>
+          <t>14,19; 20,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,99; 17,56</t>
+          <t>12,92; 17,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 18,24</t>
+          <t>14,53; 18,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,11</t>
+          <t>13,65; 17,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,74; 25,07</t>
+          <t>14,4; 25,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,13; 21,39</t>
+          <t>15,42; 21,28</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 18,51</t>
+          <t>11,55; 19,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 14,21</t>
+          <t>11,77; 14,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,92</t>
+          <t>12,18; 15,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,62%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,03</t>
+          <t>0,8; 6,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,74</t>
+          <t>4,25; 12,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,19</t>
+          <t>2,86; 7,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 10,49</t>
+          <t>4,28; 9,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 12,14</t>
+          <t>4,62; 10,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,26</t>
+          <t>5,14; 9,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,7</t>
+          <t>8,62; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,88</t>
+          <t>5,53; 9,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 11,48</t>
+          <t>7,52; 10,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 38,02</t>
+          <t>10,79; 71,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,08</t>
+          <t>6,79; 10,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 25,55</t>
+          <t>9,6; 55,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,08</t>
+          <t>13,74; 19,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 17,75</t>
+          <t>12,57; 17,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,15</t>
+          <t>14,12; 17,64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,65; 17,89</t>
+          <t>9,92; 15,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 25,24</t>
+          <t>4,78; 20,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,42; 21,28</t>
+          <t>6,22; 16,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>24,37%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,24</t>
+          <t>15,49; 22,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,16</t>
+          <t>25,14; 31,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,52</t>
+          <t>22,3; 26,86</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 39,13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 13,29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11,38; 25,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,14</t>
+          <t>0,77; 5,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,82</t>
+          <t>4,12; 13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,47</t>
+          <t>2,79; 7,39</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,85</t>
+          <t>4,35; 9,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,21</t>
+          <t>4,43; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,14</t>
+          <t>4,99; 9,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,04</t>
+          <t>8,37; 13,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,36</t>
+          <t>5,48; 9,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,99</t>
+          <t>7,32; 10,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 71,88</t>
+          <t>10,94; 70,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,51</t>
+          <t>6,82; 10,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 55,45</t>
+          <t>9,55; 54,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,51</t>
+          <t>13,92; 19,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 17,31</t>
+          <t>12,64; 17,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 17,64</t>
+          <t>14,08; 17,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,37</t>
+          <t>9,96; 15,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 20,29</t>
+          <t>5,25; 20,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 16,89</t>
+          <t>6,93; 16,86</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 22,58</t>
+          <t>15,5; 22,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,18</t>
+          <t>25,13; 31,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,86</t>
+          <t>22,08; 26,72</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,0; 39,13</t>
+          <t>11,01; 35,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,29</t>
+          <t>9,96; 13,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 25,12</t>
+          <t>11,32; 25,91</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sentimiento de soledad al menos buena parte del tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9376</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23572</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32948</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3100; 21850</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12898; 41231</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19897; 52681</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28230</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37779</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18404; 42143</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22669; 51662</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46640; 86141</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58822</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38913</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44791; 73597</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29645; 49426</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>78729; 114131</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>320013</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61051</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>381065</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>97158; 627689</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48522; 74266</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>152752; 874372</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>93402</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>81163</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>174566</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>78116; 110091</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69101; 94622</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>155955; 196584</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46267</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>79196</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>125463</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36684; 57221</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>31956; 124378</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>67694; 164607</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53223</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>118815</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>172038</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>43705; 64107</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>106533; 132210</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>155869; 188620</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>609334</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>440490</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1049824</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>380783; 1222117</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>364203; 484388</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>805141; 1843337</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>